--- a/param_log.xlsx
+++ b/param_log.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\PhD_project\BinoRiv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RSegawa\Documents\git\BinoRiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E8D7BF1-DBCA-4BCA-8EB9-6F2C974E7221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10512" xr2:uid="{6E573C5C-5676-4D3B-9B62-096E8E7B9B0D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="10515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>red grat max intensity</t>
   </si>
@@ -85,12 +84,15 @@
   </si>
   <si>
     <t>not good</t>
+  </si>
+  <si>
+    <t>Best, but blue FP has been lower than grating</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -101,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -127,12 +135,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,24 +452,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F55821F-06E4-446D-9B91-8D7841D601A2}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D23" sqref="D23:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -971,7 +980,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17">
         <v>128</v>
@@ -996,6 +1005,39 @@
       </c>
       <c r="J17" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
+        <v>160</v>
+      </c>
+      <c r="B18" s="2">
+        <f>192+32</f>
+        <v>224</v>
+      </c>
+      <c r="C18">
+        <v>128</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>255</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
